--- a/ValueSet-caregiver-gas-followup-vs.xlsx
+++ b/ValueSet-caregiver-gas-followup-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-06T18:33:54+00:00</t>
+    <t>2024-08-07T20:05:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-caregiver-gas-followup-vs.xlsx
+++ b/ValueSet-caregiver-gas-followup-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-07T20:05:12+00:00</t>
+    <t>2024-08-08T15:53:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-caregiver-gas-followup-vs.xlsx
+++ b/ValueSet-caregiver-gas-followup-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T15:53:25+00:00</t>
+    <t>2024-08-08T17:33:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-caregiver-gas-followup-vs.xlsx
+++ b/ValueSet-caregiver-gas-followup-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-08T17:33:11+00:00</t>
+    <t>2024-08-13T17:00:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-caregiver-gas-followup-vs.xlsx
+++ b/ValueSet-caregiver-gas-followup-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T17:00:10+00:00</t>
+    <t>2024-08-13T17:11:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-caregiver-gas-followup-vs.xlsx
+++ b/ValueSet-caregiver-gas-followup-vs.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from LOINC" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Goal Attainment " r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T17:11:01+00:00</t>
+    <t>2024-08-13T22:41:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -138,7 +138,7 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://loinc.org</t>
+    <t>http://mtnlotus.com/uv/pco/CodeSystem/pco-gas-codes-temporary</t>
   </si>
 </sst>
 </file>

--- a/ValueSet-caregiver-gas-followup-vs.xlsx
+++ b/ValueSet-caregiver-gas-followup-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-13T22:41:25+00:00</t>
+    <t>2024-08-15T16:20:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-caregiver-gas-followup-vs.xlsx
+++ b/ValueSet-caregiver-gas-followup-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-15T16:20:36+00:00</t>
+    <t>2024-08-17T01:13:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-caregiver-gas-followup-vs.xlsx
+++ b/ValueSet-caregiver-gas-followup-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:13:31+00:00</t>
+    <t>2024-08-17T01:14:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-caregiver-gas-followup-vs.xlsx
+++ b/ValueSet-caregiver-gas-followup-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:14:43+00:00</t>
+    <t>2024-08-17T01:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-caregiver-gas-followup-vs.xlsx
+++ b/ValueSet-caregiver-gas-followup-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-17T01:18:03+00:00</t>
+    <t>2024-08-19T20:32:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-caregiver-gas-followup-vs.xlsx
+++ b/ValueSet-caregiver-gas-followup-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-19T20:32:01+00:00</t>
+    <t>2024-08-20T21:03:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-caregiver-gas-followup-vs.xlsx
+++ b/ValueSet-caregiver-gas-followup-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T21:03:59+00:00</t>
+    <t>2024-08-21T16:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
